--- a/converter_html_in_xlsx.xlsx
+++ b/converter_html_in_xlsx.xlsx
@@ -34,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -42,51 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -452,26 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/converter_html_in_xlsx.xlsx
+++ b/converter_html_in_xlsx.xlsx
@@ -26,15 +26,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fce1b3"/>
+        <bgColor rgb="00fce1b3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +483,467 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="53" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="35" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="13" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Удалить раздел</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Наименование</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Стоимость</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Справочная информация</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Аналитический блок</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="3" t="n"/>
+      <c r="Q2" s="3" t="n"/>
+      <c r="R2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>п/п</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Кол-во</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Тр-затр (чел-дн)</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Столбец для анализа</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Кол-во</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Цена руб-ед</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Тр-затр (чел-дн)</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>Стоимость дня рабочего</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr"/>
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Стоимость работ         </t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="1" t="inlineStr"/>
+      <c r="H4" s="1" t="inlineStr"/>
+      <c r="I4" s="1" t="inlineStr"/>
+      <c r="J4" s="1" t="inlineStr"/>
+      <c r="K4" s="1" t="inlineStr"/>
+      <c r="L4" s="1" t="inlineStr"/>
+      <c r="M4" s="1" t="inlineStr"/>
+      <c r="N4" s="1" t="inlineStr"/>
+      <c r="O4" s="1" t="inlineStr"/>
+      <c r="P4" s="1" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr"/>
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Стоимость материала         </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ед изм расчётные </t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ед изм (М2) для окраски </t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>Закупка по счету - ед изм расчётные</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>Остаток закупки</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>ед изм к закупке</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>руб-ед</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr"/>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>Счёта</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>Срок поставки</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>ПРИМЕЧАНИЕ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr"/>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Стоимость спецтехники         </t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="inlineStr"/>
+      <c r="J6" s="1" t="inlineStr"/>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>Стоимость аренды</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>Телефон</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>Счет</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>Срок</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr"/>
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Итого        </t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="inlineStr"/>
+      <c r="J7" s="1" t="inlineStr"/>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="inlineStr"/>
+      <c r="M7" s="1" t="inlineStr"/>
+      <c r="N7" s="1" t="inlineStr"/>
+      <c r="O7" s="1" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Накладные расходы        </t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr"/>
+      <c r="E8" s="1" t="inlineStr"/>
+      <c r="F8" s="1" t="inlineStr"/>
+      <c r="G8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="inlineStr"/>
+      <c r="J8" s="1" t="inlineStr"/>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="inlineStr"/>
+      <c r="M8" s="1" t="inlineStr"/>
+      <c r="N8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Вспомогательные материалы        </t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr"/>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="inlineStr"/>
+      <c r="G9" s="1" t="inlineStr"/>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="inlineStr"/>
+      <c r="J9" s="1" t="inlineStr"/>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="inlineStr"/>
+      <c r="M9" s="1" t="inlineStr"/>
+      <c r="N9" s="1" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Транспортные расходы        </t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr"/>
+      <c r="E10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="inlineStr"/>
+      <c r="G10" s="1" t="inlineStr"/>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="inlineStr"/>
+      <c r="J10" s="1" t="inlineStr"/>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="inlineStr"/>
+      <c r="M10" s="1" t="inlineStr"/>
+      <c r="N10" s="1" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   ВСЕГО:        </t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr"/>
+      <c r="D11" s="1" t="inlineStr"/>
+      <c r="E11" s="1" t="inlineStr"/>
+      <c r="F11" s="1" t="inlineStr"/>
+      <c r="G11" s="1" t="inlineStr"/>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="inlineStr"/>
+      <c r="J11" s="1" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   В том числе НДС - 20% за нал от материалов        </t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
+      <c r="J12" s="1" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   ВСЕГО:        </t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr"/>
+      <c r="D14" s="1" t="inlineStr"/>
+      <c r="E14" s="1" t="inlineStr"/>
+      <c r="F14" s="1" t="inlineStr"/>
+      <c r="G14" s="1" t="inlineStr"/>
+      <c r="H14" s="1" t="inlineStr"/>
+      <c r="I14" s="1" t="inlineStr"/>
+      <c r="J14" s="1" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   В том числе НДС - 20% за нал от материалов        </t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr"/>
+      <c r="D15" s="1" t="inlineStr"/>
+      <c r="E15" s="1" t="inlineStr"/>
+      <c r="F15" s="1" t="inlineStr"/>
+      <c r="G15" s="1" t="inlineStr"/>
+      <c r="H15" s="1" t="inlineStr"/>
+      <c r="I15" s="1" t="inlineStr"/>
+      <c r="J15" s="1" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/converter_html_in_xlsx.xlsx
+++ b/converter_html_in_xlsx.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,33 +492,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="53" customWidth="1" min="2" max="2"/>
-    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="102" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="18" customWidth="1" min="11" max="11"/>
-    <col width="35" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="35" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
     <col width="16" customWidth="1" min="13" max="13"/>
     <col width="22" customWidth="1" min="14" max="14"/>
     <col width="13" customWidth="1" min="15" max="15"/>
     <col width="13" customWidth="1" min="16" max="16"/>
     <col width="13" customWidth="1" min="17" max="17"/>
     <col width="13" customWidth="1" min="18" max="18"/>
-    <col width="13" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr"/>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Удалить раздел</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -626,15 +620,15 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr"/>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Стоимость работ         </t>
-        </is>
-      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            Стоимость работ                             </t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="1" t="inlineStr"/>
       <c r="G4" s="1" t="inlineStr"/>
       <c r="H4" s="1" t="inlineStr"/>
       <c r="I4" s="1" t="inlineStr"/>
@@ -644,64 +638,62 @@
       <c r="M4" s="1" t="inlineStr"/>
       <c r="N4" s="1" t="inlineStr"/>
       <c r="O4" s="1" t="inlineStr"/>
-      <c r="P4" s="1" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr"/>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Стоимость материала         </t>
-        </is>
-      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            Стоимость материала                             </t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="1" t="inlineStr"/>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="1" t="inlineStr"/>
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ед изм расчётные </t>
         </is>
       </c>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ед изм (М2) для окраски </t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr"/>
+      <c r="J5" s="1" t="inlineStr"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>Закупка по счету - ед изм расчётные</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>Закупка по счету - ед изм расчётные</t>
+          <t>Остаток закупки</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>Остаток закупки</t>
+          <t>ед изм к закупке</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>ед изм к закупке</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
           <t>руб-ед</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr"/>
+      <c r="O5" s="1" t="inlineStr"/>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>Счёта</t>
+        </is>
+      </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>Счёта</t>
+          <t>Срок поставки</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
-        <is>
-          <t>Срок поставки</t>
-        </is>
-      </c>
-      <c r="S5" s="1" t="inlineStr">
         <is>
           <t>ПРИМЕЧАНИЕ</t>
         </is>
@@ -709,36 +701,35 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Стоимость спецтехники         </t>
-        </is>
-      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            Стоимость спецтехники                             </t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="1" t="inlineStr"/>
       <c r="G6" s="1" t="inlineStr"/>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="inlineStr"/>
       <c r="J6" s="1" t="inlineStr"/>
-      <c r="K6" s="1" t="inlineStr"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>Стоимость аренды</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>Стоимость аренды</t>
+          <t>Телефон</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>Телефон</t>
+          <t>Счет</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>Счет</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
         <is>
           <t>Срок</t>
         </is>
@@ -746,15 +737,15 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr"/>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Итого        </t>
-        </is>
-      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Итого                            </t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
@@ -763,7 +754,6 @@
       <c r="L7" s="1" t="inlineStr"/>
       <c r="M7" s="1" t="inlineStr"/>
       <c r="N7" s="1" t="inlineStr"/>
-      <c r="O7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -773,7 +763,7 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Накладные расходы        </t>
+          <t xml:space="preserve">                                Накладные расходы                            </t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -801,7 +791,7 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Вспомогательные материалы        </t>
+          <t xml:space="preserve">                                Вспомогательные материалы                            </t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -829,7 +819,7 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Транспортные расходы        </t>
+          <t xml:space="preserve">                                Транспортные расходы                            </t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -857,7 +847,7 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">   ВСЕГО:        </t>
+          <t xml:space="preserve">                                ВСЕГО:                            </t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
@@ -877,7 +867,7 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">   В том числе НДС - 20% за нал от материалов        </t>
+          <t xml:space="preserve">                                В том числе НДС - 20% за нал от материалов                            </t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -893,14 +883,11 @@
       <c r="I12" s="1" t="inlineStr"/>
       <c r="J12" s="1" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr"/>
-    </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">   ВСЕГО:        </t>
+          <t xml:space="preserve">                                Итого по разделам:                            </t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
@@ -916,7 +903,7 @@
       <c r="A15" s="1" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">   В том числе НДС - 20% за нал от материалов        </t>
+          <t xml:space="preserve">                               Итого НДС:                               </t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
@@ -930,18 +917,18 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="G3"/>
-    <mergeCell ref="C4:F4"/>
     <mergeCell ref="H3"/>
     <mergeCell ref="F3"/>
     <mergeCell ref="I3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/converter_html_in_xlsx.xlsx
+++ b/converter_html_in_xlsx.xlsx
@@ -55,6 +55,34 @@
       <bottom style="thin"/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right/>
       <top/>
@@ -72,34 +100,6 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -112,12 +112,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,445 +491,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="102" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="13" customWidth="1" min="10" max="10"/>
-    <col width="35" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="16" customWidth="1" min="13" max="13"/>
-    <col width="22" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
-    <col width="13" customWidth="1" min="17" max="17"/>
-    <col width="13" customWidth="1" min="18" max="18"/>
+    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>№</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Наименование</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Стоимость</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Справочная информация</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Аналитический блок</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
-      <c r="N2" s="3" t="n"/>
-      <c r="O2" s="3" t="n"/>
-      <c r="P2" s="3" t="n"/>
-      <c r="Q2" s="3" t="n"/>
-      <c r="R2" s="4" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>п/п</t>
         </is>
       </c>
       <c r="B3" s="5" t="n"/>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Ед.изм.</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Кол-во</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Цена</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Всего</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Тр-затр (чел-дн)</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Столбец для анализа</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>Примечание</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Кол-во</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>Цена руб-ед</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Всего</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>Тр-затр (чел-дн)</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>Стоимость дня рабочего</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                            Стоимость работ                             </t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="1" t="inlineStr"/>
-      <c r="G4" s="1" t="inlineStr"/>
-      <c r="H4" s="1" t="inlineStr"/>
-      <c r="I4" s="1" t="inlineStr"/>
-      <c r="J4" s="1" t="inlineStr"/>
-      <c r="K4" s="1" t="inlineStr"/>
-      <c r="L4" s="1" t="inlineStr"/>
-      <c r="M4" s="1" t="inlineStr"/>
-      <c r="N4" s="1" t="inlineStr"/>
-      <c r="O4" s="1" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                            Стоимость материала                             </t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="1" t="inlineStr"/>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ед изм расчётные </t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ед изм (М2) для окраски </t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr"/>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>Закупка по счету - ед изм расчётные</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>Остаток закупки</t>
-        </is>
-      </c>
-      <c r="M5" s="1" t="inlineStr">
-        <is>
-          <t>ед изм к закупке</t>
-        </is>
-      </c>
-      <c r="N5" s="1" t="inlineStr">
-        <is>
-          <t>руб-ед</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr"/>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>Счёта</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>Срок поставки</t>
-        </is>
-      </c>
-      <c r="R5" s="1" t="inlineStr">
-        <is>
-          <t>ПРИМЕЧАНИЕ</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                            Стоимость спецтехники                             </t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="1" t="inlineStr"/>
-      <c r="G6" s="1" t="inlineStr"/>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="inlineStr"/>
-      <c r="J6" s="1" t="inlineStr"/>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>Стоимость аренды</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>Телефон</t>
-        </is>
-      </c>
-      <c r="M6" s="1" t="inlineStr">
-        <is>
-          <t>Счет</t>
-        </is>
-      </c>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>Срок</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Итого                            </t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="1" t="inlineStr"/>
-      <c r="G7" s="1" t="inlineStr"/>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="inlineStr"/>
-      <c r="J7" s="1" t="inlineStr"/>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="inlineStr"/>
-      <c r="M7" s="1" t="inlineStr"/>
-      <c r="N7" s="1" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                Накладные расходы                            </t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="inlineStr"/>
-      <c r="G8" s="1" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="inlineStr"/>
-      <c r="J8" s="1" t="inlineStr"/>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="inlineStr"/>
-      <c r="M8" s="1" t="inlineStr"/>
-      <c r="N8" s="1" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                Вспомогательные материалы                            </t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="inlineStr"/>
-      <c r="G9" s="1" t="inlineStr"/>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="inlineStr"/>
-      <c r="J9" s="1" t="inlineStr"/>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="inlineStr"/>
-      <c r="M9" s="1" t="inlineStr"/>
-      <c r="N9" s="1" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                Транспортные расходы                            </t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr"/>
-      <c r="E10" s="1" t="inlineStr"/>
-      <c r="F10" s="1" t="inlineStr"/>
-      <c r="G10" s="1" t="inlineStr"/>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="inlineStr"/>
-      <c r="J10" s="1" t="inlineStr"/>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="inlineStr"/>
-      <c r="M10" s="1" t="inlineStr"/>
-      <c r="N10" s="1" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                ВСЕГО:                            </t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr"/>
-      <c r="D11" s="1" t="inlineStr"/>
-      <c r="E11" s="1" t="inlineStr"/>
-      <c r="F11" s="1" t="inlineStr"/>
-      <c r="G11" s="1" t="inlineStr"/>
-      <c r="H11" s="1" t="inlineStr"/>
-      <c r="I11" s="1" t="inlineStr"/>
-      <c r="J11" s="1" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                В том числе НДС - 20% за нал от материалов                            </t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr"/>
-      <c r="F12" s="1" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
-      <c r="I12" s="1" t="inlineStr"/>
-      <c r="J12" s="1" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                Итого по разделам:                            </t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr"/>
-      <c r="D14" s="1" t="inlineStr"/>
-      <c r="E14" s="1" t="inlineStr"/>
-      <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr"/>
-      <c r="H14" s="1" t="inlineStr"/>
-      <c r="I14" s="1" t="inlineStr"/>
-      <c r="J14" s="1" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                               Итого НДС:                               </t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr"/>
-      <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" s="1" t="inlineStr"/>
-      <c r="F15" s="1" t="inlineStr"/>
-      <c r="G15" s="1" t="inlineStr"/>
-      <c r="H15" s="1" t="inlineStr"/>
-      <c r="I15" s="1" t="inlineStr"/>
-      <c r="J15" s="1" t="inlineStr"/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Стоимость работ         </t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="H3"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="I3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="G2:J2"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
